--- a/LOGS/5b28ac7e-c786-437d-868f-4f98faba13ac/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/5b28ac7e-c786-437d-868f-4f98faba13ac/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="105">
   <si>
     <t>rows</t>
   </si>
@@ -49,6 +49,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>Current Gross trade receivables</t>
   </si>
   <si>
@@ -67,12 +70,18 @@
     <t>$'000</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Current Finished goods at net realisable value</t>
   </si>
   <si>
     <t>Current Stock in transit</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Provisions and accrued employee entitlements not currently deductible</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>DTA expected to be recovered within 12 months DTA expected to be recovered after more than 12 months</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>None Right-of-use-assets</t>
   </si>
   <si>
@@ -127,6 +139,9 @@
     <t>Plant, equipment, motor vehicles and outboard engines Total carrying amount at end of year</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Equipment Opening balance at beginning of year</t>
   </si>
   <si>
@@ -142,6 +157,9 @@
     <t>Equipment Carrying amount at end of year</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>(b) Lease Liabilities Current</t>
   </si>
   <si>
@@ -193,10 +211,7 @@
     <t>Current Employee benefits</t>
   </si>
   <si>
-    <t>Total Liability for annual and long-service leave</t>
-  </si>
-  <si>
-    <t>Total Total</t>
+    <t>Current Liability for annual and long-service leave</t>
   </si>
   <si>
     <t>Non-current Liability forl long-service leave</t>
@@ -208,12 +223,27 @@
     <t>None Current leave obligations expected to be settled after 12 months</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>None Liability for annual and long-service leave</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>None Roadside assistance</t>
   </si>
   <si>
     <t>Current Non-current</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>None Dealerincentive, promotionaland DSM budget</t>
   </si>
   <si>
@@ -283,6 +313,9 @@
     <t>Retained profits On issue 31 March</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>None Sale of goods Cars</t>
   </si>
   <si>
@@ -295,6 +328,9 @@
     <t>None Sale of goods Spareparts</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3 Other income Gain/(loss) on sale property plant and equipment</t>
   </si>
   <si>
@@ -302,6 +338,18 @@
   </si>
   <si>
     <t>3 Other income Total</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4 Other Expenses Depreciation expense</t>
+  </si>
+  <si>
+    <t>4 Other Expenses Total</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -659,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,13 +726,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -692,13 +743,16 @@
       <c r="D2">
         <v>6409</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -706,13 +760,16 @@
       <c r="D3">
         <v>-118</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -720,13 +777,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -734,13 +794,16 @@
       <c r="D5">
         <v>892</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -748,13 +811,16 @@
       <c r="D6">
         <v>7183</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -762,13 +828,16 @@
       <c r="D7">
         <v>5876</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -776,13 +845,16 @@
       <c r="D8">
         <v>-132</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -790,13 +862,16 @@
       <c r="D9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -804,19 +879,25 @@
       <c r="D10">
         <v>1240</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>7002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -826,13 +907,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,13 +926,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -859,19 +943,25 @@
       <c r="D2">
         <v>838</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>797</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -881,13 +971,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,13 +990,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -914,13 +1007,16 @@
       <c r="D2">
         <v>16654</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -928,13 +1024,16 @@
       <c r="D3">
         <v>805</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -942,13 +1041,16 @@
       <c r="D4">
         <v>13032</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -956,13 +1058,16 @@
       <c r="D5">
         <v>30491</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -970,13 +1075,16 @@
       <c r="D6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -984,13 +1092,16 @@
       <c r="D7">
         <v>18249</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -998,13 +1109,16 @@
       <c r="D8">
         <v>2420</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1012,13 +1126,16 @@
       <c r="D9">
         <v>16178</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1026,19 +1143,25 @@
       <c r="D10">
         <v>36847</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>2022</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1048,13 +1171,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,13 +1190,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1081,13 +1207,16 @@
       <c r="D2">
         <v>1993</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1095,13 +1224,16 @@
       <c r="D3">
         <v>1993</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1109,13 +1241,16 @@
       <c r="D4">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1123,13 +1258,16 @@
       <c r="D5">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1137,13 +1275,16 @@
       <c r="D6">
         <v>2040</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1151,13 +1292,16 @@
       <c r="D7">
         <v>2040</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1165,19 +1309,25 @@
       <c r="D8">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>135</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1187,13 +1337,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,13 +1356,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1220,19 +1373,25 @@
       <c r="D2">
         <v>838</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>797</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1242,13 +1401,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,10 +1420,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1272,10 +1434,13 @@
       <c r="D2">
         <v>5669</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1283,10 +1448,13 @@
       <c r="D3">
         <v>-1919</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1294,10 +1462,13 @@
       <c r="D4">
         <v>4675</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1305,10 +1476,13 @@
       <c r="D5">
         <v>8425</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1316,10 +1490,13 @@
       <c r="D6">
         <v>2126</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1327,10 +1504,13 @@
       <c r="D7">
         <v>6299</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1338,10 +1518,13 @@
       <c r="D8">
         <v>8425</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1349,10 +1532,13 @@
       <c r="D9">
         <v>4351</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1360,10 +1546,13 @@
       <c r="D10">
         <v>-961</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1371,10 +1560,13 @@
       <c r="D11">
         <v>2279</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1382,10 +1574,13 @@
       <c r="D12">
         <v>5669</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1393,10 +1588,13 @@
       <c r="D13">
         <v>896</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1404,16 +1602,22 @@
       <c r="D14">
         <v>4773</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
         <v>5669</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1423,13 +1627,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1442,10 +1646,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1453,10 +1660,13 @@
       <c r="D2">
         <v>3853</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1464,10 +1674,13 @@
       <c r="D3">
         <v>3853</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1475,10 +1688,13 @@
       <c r="D4">
         <v>3853</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1486,10 +1702,13 @@
       <c r="D5">
         <v>4692</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1497,16 +1716,22 @@
       <c r="D6">
         <v>4692</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>4692</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1516,13 +1741,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,13 +1760,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1549,13 +1777,16 @@
       <c r="D2">
         <v>3103</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1563,13 +1794,16 @@
       <c r="D3">
         <v>3103</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1577,13 +1811,16 @@
       <c r="D4">
         <v>3103</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1591,13 +1828,16 @@
       <c r="D5">
         <v>1497</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1605,19 +1845,25 @@
       <c r="D6">
         <v>1497</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1627,13 +1873,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,13 +1892,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1660,13 +1909,16 @@
       <c r="D2">
         <v>1677</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1674,13 +1926,16 @@
       <c r="D3">
         <v>1677</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1688,13 +1943,16 @@
       <c r="D4">
         <v>1677</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1702,13 +1960,16 @@
       <c r="D5">
         <v>2023</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1716,13 +1977,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1730,13 +1994,16 @@
       <c r="D7">
         <v>2465</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1744,13 +2011,16 @@
       <c r="D8">
         <v>2465</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1758,13 +2028,16 @@
       <c r="D9">
         <v>2465</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1772,13 +2045,16 @@
       <c r="D10">
         <v>2023</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1786,13 +2062,16 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1800,13 +2079,16 @@
       <c r="D12">
         <v>1751</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1814,13 +2096,16 @@
       <c r="D13">
         <v>-680</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -1828,13 +2113,16 @@
       <c r="D14">
         <v>-61</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1842,13 +2130,16 @@
       <c r="D15">
         <v>1010</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1856,13 +2147,16 @@
       <c r="D16">
         <v>759</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1870,13 +2164,16 @@
       <c r="D17">
         <v>251</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -1884,13 +2181,16 @@
       <c r="D18">
         <v>1010</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -1898,13 +2198,16 @@
       <c r="D19">
         <v>1330</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -1912,13 +2215,16 @@
       <c r="D20">
         <v>1330</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -1926,13 +2232,16 @@
       <c r="D21">
         <v>1330</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -1940,13 +2249,16 @@
       <c r="D22">
         <v>2022</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -1954,13 +2266,16 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -1968,13 +2283,16 @@
       <c r="D24">
         <v>2495</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -1982,13 +2300,16 @@
       <c r="D25">
         <v>2495</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -1996,13 +2317,16 @@
       <c r="D26">
         <v>2495</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -2010,13 +2334,16 @@
       <c r="D27">
         <v>2022</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -2024,13 +2351,16 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -2038,13 +2368,16 @@
       <c r="D29">
         <v>2731</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -2052,13 +2385,16 @@
       <c r="D30">
         <v>-797</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -2066,13 +2402,16 @@
       <c r="D31">
         <v>-183</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -2080,13 +2419,16 @@
       <c r="D32">
         <v>1751</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -2094,13 +2436,16 @@
       <c r="D33">
         <v>759</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -2108,19 +2453,25 @@
       <c r="D34">
         <v>992</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>2022</v>
       </c>
       <c r="D35">
         <v>1751</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2130,13 +2481,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2149,13 +2500,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2163,13 +2517,16 @@
       <c r="D2">
         <v>4340</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2177,13 +2534,16 @@
       <c r="D3">
         <v>4340</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2191,13 +2551,16 @@
       <c r="D4">
         <v>4340</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2205,13 +2568,16 @@
       <c r="D5">
         <v>2023</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2219,13 +2585,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2233,13 +2602,16 @@
       <c r="D7">
         <v>12345</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -2247,13 +2619,16 @@
       <c r="D8">
         <v>4104</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -2261,13 +2636,16 @@
       <c r="D9">
         <v>16449</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -2275,13 +2653,16 @@
       <c r="D10">
         <v>1320</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -2289,13 +2670,16 @@
       <c r="D11">
         <v>1320</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -2303,13 +2687,16 @@
       <c r="D12">
         <v>1320</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2317,13 +2704,16 @@
       <c r="D13">
         <v>2022</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2331,13 +2721,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2345,13 +2738,16 @@
       <c r="D15">
         <v>7402</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2359,19 +2755,25 @@
       <c r="D16">
         <v>5684</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>2022</v>
       </c>
       <c r="D17">
         <v>13086</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2381,13 +2783,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2400,13 +2802,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2414,13 +2819,16 @@
       <c r="D2">
         <v>22400</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2428,13 +2836,16 @@
       <c r="D3">
         <v>22400</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2442,13 +2853,16 @@
       <c r="D4">
         <v>81732</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2456,13 +2870,16 @@
       <c r="D5">
         <v>11823</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2470,13 +2887,16 @@
       <c r="D6">
         <v>-17703</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2484,13 +2904,16 @@
       <c r="D7">
         <v>75852</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -2498,13 +2921,16 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -2512,13 +2938,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -2526,13 +2955,16 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -2540,13 +2972,16 @@
       <c r="D11">
         <v>22400</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -2554,13 +2989,16 @@
       <c r="D12">
         <v>22400</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2568,13 +3006,16 @@
       <c r="D13">
         <v>22400</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2582,13 +3023,16 @@
       <c r="D14">
         <v>22400</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2596,13 +3040,16 @@
       <c r="D15">
         <v>64029</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2610,13 +3057,16 @@
       <c r="D16">
         <v>17703</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2624,13 +3074,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -2638,13 +3091,16 @@
       <c r="D18">
         <v>81732</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -2652,13 +3108,16 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -2666,13 +3125,16 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -2680,13 +3142,16 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -2694,19 +3159,25 @@
       <c r="D22">
         <v>22400</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>2022</v>
       </c>
       <c r="D23">
         <v>22400</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2716,13 +3187,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2735,10 +3206,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2746,10 +3220,13 @@
       <c r="D2">
         <v>71812</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2757,10 +3234,13 @@
       <c r="D3">
         <v>44440</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2768,10 +3248,13 @@
       <c r="D4">
         <v>116252</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2779,10 +3262,13 @@
       <c r="D5">
         <v>54607</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2790,16 +3276,22 @@
       <c r="D6">
         <v>64068</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>118675</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2809,13 +3301,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2828,10 +3320,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2839,10 +3334,13 @@
       <c r="D2">
         <v>372069</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2850,10 +3348,13 @@
       <c r="D3">
         <v>31801</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2861,10 +3362,13 @@
       <c r="D4">
         <v>51608</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2872,10 +3376,13 @@
       <c r="D5">
         <v>40547</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2883,10 +3390,13 @@
       <c r="D6">
         <v>496025</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2894,10 +3404,13 @@
       <c r="D7">
         <v>282011</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2905,10 +3418,13 @@
       <c r="D8">
         <v>42752</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2916,10 +3432,13 @@
       <c r="D9">
         <v>40920</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -2927,16 +3446,22 @@
       <c r="D10">
         <v>33395</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>399078</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2946,13 +3471,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2965,10 +3490,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2976,10 +3504,13 @@
       <c r="D2">
         <v>978</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2987,10 +3518,13 @@
       <c r="D3">
         <v>477</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2998,10 +3532,13 @@
       <c r="D4">
         <v>1455</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -3009,10 +3546,13 @@
       <c r="D5">
         <v>924</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3020,16 +3560,22 @@
       <c r="D6">
         <v>412</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>1336</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3039,25 +3585,99 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>1540</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>1540</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>1464</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>1464</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3070,10 +3690,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3081,10 +3704,13 @@
       <c r="D2">
         <v>6624</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3092,10 +3718,13 @@
       <c r="D3">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3103,10 +3732,13 @@
       <c r="D4">
         <v>6652</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3114,10 +3746,13 @@
       <c r="D5">
         <v>6652</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3125,10 +3760,13 @@
       <c r="D6">
         <v>6113</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3136,10 +3774,13 @@
       <c r="D7">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3147,16 +3788,22 @@
       <c r="D8">
         <v>6161</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>6161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3166,13 +3813,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3185,13 +3832,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3199,13 +3849,16 @@
       <c r="D2">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3213,13 +3866,16 @@
       <c r="D3">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -3227,19 +3883,25 @@
       <c r="D4">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3249,13 +3911,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3268,10 +3930,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3279,10 +3944,13 @@
       <c r="D2">
         <v>710</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3290,10 +3958,13 @@
       <c r="D3">
         <v>710</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3301,10 +3972,13 @@
       <c r="D4">
         <v>1773</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3312,10 +3986,13 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3323,10 +4000,13 @@
       <c r="D6">
         <v>-88</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3334,10 +4014,13 @@
       <c r="D7">
         <v>1685</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -3345,10 +4028,13 @@
       <c r="D8">
         <v>4637</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -3356,10 +4042,13 @@
       <c r="D9">
         <v>7224</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -3367,10 +4056,13 @@
       <c r="D10">
         <v>-4025</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -3378,10 +4070,13 @@
       <c r="D11">
         <v>-1372</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -3389,10 +4084,13 @@
       <c r="D12">
         <v>6464</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -3400,10 +4098,13 @@
       <c r="D13">
         <v>8859</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -3411,10 +4112,13 @@
       <c r="D14">
         <v>710</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -3422,10 +4126,13 @@
       <c r="D15">
         <v>710</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -3433,10 +4140,13 @@
       <c r="D16">
         <v>1748</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -3444,10 +4154,13 @@
       <c r="D17">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -3455,10 +4168,13 @@
       <c r="D18">
         <v>-84</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -3466,10 +4182,13 @@
       <c r="D19">
         <v>1773</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -3477,10 +4196,13 @@
       <c r="D20">
         <v>5056</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -3488,10 +4210,13 @@
       <c r="D21">
         <v>3375</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -3499,10 +4224,13 @@
       <c r="D22">
         <v>-2521</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -3510,10 +4238,13 @@
       <c r="D23">
         <v>-1273</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -3521,16 +4252,22 @@
       <c r="D24">
         <v>4637</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>2022</v>
       </c>
       <c r="D25">
         <v>7120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3540,13 +4277,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3559,10 +4296,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3570,10 +4310,13 @@
       <c r="D2">
         <v>159</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3581,10 +4324,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3592,10 +4338,13 @@
       <c r="D4">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3603,10 +4352,13 @@
       <c r="D5">
         <v>-80</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3614,10 +4366,13 @@
       <c r="D6">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3625,10 +4380,13 @@
       <c r="D7">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3636,10 +4394,13 @@
       <c r="D8">
         <v>172</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3647,10 +4408,13 @@
       <c r="D9">
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -3658,16 +4422,22 @@
       <c r="D10">
         <v>-108</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>159</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3677,13 +4447,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3696,10 +4466,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3707,10 +4480,13 @@
       <c r="D2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3718,10 +4494,13 @@
       <c r="D3">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3729,10 +4508,13 @@
       <c r="D4">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3740,10 +4522,13 @@
       <c r="D5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3751,10 +4536,13 @@
       <c r="D6">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3762,10 +4550,13 @@
       <c r="D7">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3773,10 +4564,13 @@
       <c r="D8">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3784,10 +4578,13 @@
       <c r="D9">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -3795,10 +4592,13 @@
       <c r="D10">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -3806,10 +4606,13 @@
       <c r="D11">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -3817,16 +4620,22 @@
       <c r="D12">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
         <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3836,13 +4645,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3855,10 +4664,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3866,10 +4678,13 @@
       <c r="D2">
         <v>5669</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3877,10 +4692,13 @@
       <c r="D3">
         <v>-1919</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3888,10 +4706,13 @@
       <c r="D4">
         <v>4675</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3899,10 +4720,13 @@
       <c r="D5">
         <v>8425</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3910,10 +4734,13 @@
       <c r="D6">
         <v>2126</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3921,10 +4748,13 @@
       <c r="D7">
         <v>6299</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -3932,10 +4762,13 @@
       <c r="D8">
         <v>8425</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3943,10 +4776,13 @@
       <c r="D9">
         <v>4351</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -3954,10 +4790,13 @@
       <c r="D10">
         <v>-961</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -3965,10 +4804,13 @@
       <c r="D11">
         <v>2279</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -3976,10 +4818,13 @@
       <c r="D12">
         <v>5669</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -3987,10 +4832,13 @@
       <c r="D13">
         <v>896</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -3998,16 +4846,22 @@
       <c r="D14">
         <v>4773</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
         <v>5669</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4017,13 +4871,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4036,13 +4890,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4050,13 +4907,16 @@
       <c r="D2">
         <v>16654</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4064,13 +4924,16 @@
       <c r="D3">
         <v>805</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4078,13 +4941,16 @@
       <c r="D4">
         <v>13032</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -4092,27 +4958,33 @@
       <c r="D5">
         <v>30491</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>2023</v>
-      </c>
-      <c r="D6">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -4120,13 +4992,16 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -4134,13 +5009,16 @@
       <c r="D8">
         <v>1993</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -4148,13 +5026,16 @@
       <c r="D9">
         <v>1993</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -4162,13 +5043,16 @@
       <c r="D10">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -4176,13 +5060,16 @@
       <c r="D11">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -4190,13 +5077,16 @@
       <c r="D12">
         <v>18249</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -4204,13 +5094,16 @@
       <c r="D13">
         <v>2420</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -4218,13 +5111,16 @@
       <c r="D14">
         <v>16178</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -4232,27 +5128,33 @@
       <c r="D15">
         <v>36847</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
-        <v>2022</v>
-      </c>
-      <c r="D16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -4260,13 +5162,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -4274,13 +5179,16 @@
       <c r="D18">
         <v>2040</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -4288,13 +5196,16 @@
       <c r="D19">
         <v>2040</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -4302,19 +5213,25 @@
       <c r="D20">
         <v>135</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>2022</v>
       </c>
       <c r="D21">
         <v>135</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
